--- a/biology/Médecine/Eduard_von_Rindfleisch/Eduard_von_Rindfleisch.xlsx
+++ b/biology/Médecine/Eduard_von_Rindfleisch/Eduard_von_Rindfleisch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Eduard von Rindfleisch (15 décembre 1836 à Köthen, duché d'Anhalt-Köthen - 6 décembre 1908 à Wurtzbourg) était un pathologiste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rindfleisch étudia la médecine à Wurtzbourg et Berlin, et passa le doctorat en 1859 auprès de Rudolf Virchow pour lequel il travailla ensuite jusqu'à 1861 comme assistant. En 1862 il passa son habilitation à Breslau. La même année, il reçut une chaire de professeur à Zurich, avant de devenir, en 1865, professeur titulaire à Bonn. En 1874 il reçut un appel à Wurtzbourg où il devint le sixième titulaire de la chaire de la pathologie. Il prit sa retraite en 1906.
 Sur le plan scientifique Rindfleisch se consacra avec succès à l'histologie et avec une réussite moindre à la moelle osseuse et à l'hématopoïèse. C'était un tenant du néovitalisme.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lehrbuch der pathologischen Gewebelehre. Engelmann, Leipzig 1867.
 Die Elemente der Pathologie: ein natürlicher Grundriss der wissenschaftlichen Medicin. Engelmann, Leipzig 1883.
